--- a/01.Main/Resource/Excel/FormWholeBin.xlsx
+++ b/01.Main/Resource/Excel/FormWholeBin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShDoc\Projects\VS\IsSoft\SEC\LedChecker\01.Main\Resource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1935AA6F-623B-440E-9199-6E96FA89BA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0625BAB-4BCF-4437-8555-930D888AF328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56400" yWindow="3735" windowWidth="28800" windowHeight="15885" xr2:uid="{D21F7BE3-9586-4114-99D3-0E366940EC38}"/>
+    <workbookView xWindow="50280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D21F7BE3-9586-4114-99D3-0E366940EC38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -146,51 +142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color auto="1"/>
@@ -218,6 +169,98 @@
       <left style="double">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -236,6 +279,36 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top style="double">
         <color auto="1"/>
       </top>
@@ -251,19 +324,17 @@
       <right style="double">
         <color auto="1"/>
       </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="double">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -275,57 +346,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="double">
         <color auto="1"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -336,86 +366,101 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,279 +780,279 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="23" customWidth="1"/>
-    <col min="2" max="9" width="21.375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="12.625" style="23"/>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="21.375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="12.625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" s="21" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" s="25" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" s="26" customFormat="1" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:11" s="21" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="32.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.Main/Resource/Excel/FormWholeBin.xlsx
+++ b/01.Main/Resource/Excel/FormWholeBin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShDoc\Projects\VS\IsSoft\SEC\LedChecker\01.Main\Resource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0625BAB-4BCF-4437-8555-930D888AF328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342EC12B-3708-44D8-954C-348A7FA583CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D21F7BE3-9586-4114-99D3-0E366940EC38}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,12 +61,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial Rounded MT Bold"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -376,34 +370,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,9 +409,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,9 +421,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,9 +433,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,6 +443,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +774,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -792,263 +786,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="32.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="27"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="28"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="29"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="30"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="29"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="30"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="29"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="30"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="29"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="30"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="29"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="29"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="30"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="30"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="29"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="30"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="29"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="31"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
